--- a/predicted_comparison.xlsx
+++ b/predicted_comparison.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Python\python_work\works\working_pythons\BandGapPredictor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18F5F69A-E001-4CAA-9733-196F9ACB8B8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{720CFE51-59BE-4151-B361-A16A82981406}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="68">
   <si>
     <t>Composition</t>
   </si>
@@ -269,6 +269,9 @@
   </si>
   <si>
     <t>Predicted Eg_RF</t>
+  </si>
+  <si>
+    <t>Predicted Eg</t>
   </si>
 </sst>
 </file>
@@ -737,10 +740,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -748,11 +751,11 @@
     <col min="1" max="1" width="24.5703125" style="6" customWidth="1"/>
     <col min="2" max="2" width="14.85546875" style="7" customWidth="1"/>
     <col min="3" max="3" width="15.7109375" style="7" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" style="7" customWidth="1"/>
-    <col min="5" max="5" width="23.140625" style="7" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" style="7" customWidth="1"/>
+    <col min="7" max="7" width="23.140625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -762,14 +765,20 @@
       <c r="C1" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
@@ -779,14 +788,20 @@
       <c r="C2" s="7">
         <v>3.13</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2">
+        <v>3.09</v>
+      </c>
+      <c r="E2">
+        <v>3.09</v>
+      </c>
+      <c r="F2" s="8">
         <v>3.42</v>
       </c>
-      <c r="E2" s="8">
+      <c r="G2" s="8">
         <v>3.19</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
@@ -796,14 +811,20 @@
       <c r="C3" s="7">
         <v>3.35</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3">
+        <v>3.21</v>
+      </c>
+      <c r="E3">
+        <v>3.18</v>
+      </c>
+      <c r="F3" s="8">
         <v>3.27</v>
       </c>
-      <c r="E3" s="8">
+      <c r="G3" s="8">
         <v>3.32</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>3</v>
       </c>
@@ -813,14 +834,20 @@
       <c r="C4" s="7">
         <v>3.22</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4">
+        <v>3.16</v>
+      </c>
+      <c r="E4">
+        <v>3.25</v>
+      </c>
+      <c r="F4" s="8">
         <v>3.26</v>
       </c>
-      <c r="E4" s="8">
+      <c r="G4" s="8">
         <v>3.36</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>4</v>
       </c>
@@ -830,14 +857,20 @@
       <c r="C5" s="7">
         <v>3.31</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5">
+        <v>3.18</v>
+      </c>
+      <c r="E5">
+        <v>3.2</v>
+      </c>
+      <c r="F5" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="G5" s="8" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>5</v>
       </c>
@@ -847,14 +880,20 @@
       <c r="C6" s="7">
         <v>3.2</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6">
+        <v>3.12</v>
+      </c>
+      <c r="E6">
+        <v>3.19</v>
+      </c>
+      <c r="F6" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="G6" s="8" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
@@ -864,14 +903,20 @@
       <c r="C7" s="7">
         <v>3.32</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7">
+        <v>3.24</v>
+      </c>
+      <c r="E7">
+        <v>3.21</v>
+      </c>
+      <c r="F7" s="8">
         <v>3.2</v>
       </c>
-      <c r="E7" s="8">
+      <c r="G7" s="8">
         <v>3.29</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>7</v>
       </c>
@@ -881,14 +926,20 @@
       <c r="C8" s="7">
         <v>3.2</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8">
+        <v>3.19</v>
+      </c>
+      <c r="E8">
+        <v>3.2</v>
+      </c>
+      <c r="F8" s="8">
         <v>3.4</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="G8" s="8" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>8</v>
       </c>
@@ -898,14 +949,20 @@
       <c r="C9" s="7">
         <v>3.07</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9">
+        <v>3.01</v>
+      </c>
+      <c r="F9" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="G9" s="8" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>9</v>
       </c>
@@ -915,14 +972,20 @@
       <c r="C10" s="7">
         <v>3.29</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10">
+        <v>3.12</v>
+      </c>
+      <c r="E10">
+        <v>3.06</v>
+      </c>
+      <c r="F10" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="G10" s="8" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>10</v>
       </c>
@@ -932,14 +995,20 @@
       <c r="C11" s="7">
         <v>3.19</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11">
+        <v>3.12</v>
+      </c>
+      <c r="E11">
+        <v>3.12</v>
+      </c>
+      <c r="F11" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="G11" s="8" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>11</v>
       </c>
@@ -949,14 +1018,20 @@
       <c r="C12" s="7">
         <v>3.19</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12">
+        <v>3.15</v>
+      </c>
+      <c r="E12">
+        <v>3.1</v>
+      </c>
+      <c r="F12" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="G12" s="8" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>12</v>
       </c>
@@ -966,14 +1041,20 @@
       <c r="C13" s="7">
         <v>3.08</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13">
+        <v>3.08</v>
+      </c>
+      <c r="E13">
+        <v>3.16</v>
+      </c>
+      <c r="F13" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="G13" s="8" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>13</v>
       </c>
@@ -983,14 +1064,20 @@
       <c r="C14" s="7">
         <v>3.08</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14">
+        <v>3.04</v>
+      </c>
+      <c r="E14">
+        <v>3.12</v>
+      </c>
+      <c r="F14" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="G14" s="8" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>14</v>
       </c>
@@ -1000,14 +1087,20 @@
       <c r="C15" s="7">
         <v>3.21</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15">
+        <v>3.1</v>
+      </c>
+      <c r="E15">
+        <v>3.09</v>
+      </c>
+      <c r="F15" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="G15" s="8" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>15</v>
       </c>
@@ -1017,14 +1110,20 @@
       <c r="C16" s="7">
         <v>3.23</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16">
+        <v>3.12</v>
+      </c>
+      <c r="E16">
+        <v>3.02</v>
+      </c>
+      <c r="F16" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="G16" s="8" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>16</v>
       </c>
@@ -1034,14 +1133,20 @@
       <c r="C17" s="7">
         <v>3.11</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17">
+        <v>3.07</v>
+      </c>
+      <c r="E17">
+        <v>3.05</v>
+      </c>
+      <c r="F17" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="G17" s="8" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>17</v>
       </c>
@@ -1051,14 +1156,20 @@
       <c r="C18" s="7">
         <v>3.05</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18">
+        <v>3.02</v>
+      </c>
+      <c r="E18">
+        <v>3.06</v>
+      </c>
+      <c r="F18" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="E18" s="8" t="s">
+      <c r="G18" s="8" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>18</v>
       </c>
@@ -1068,14 +1179,20 @@
       <c r="C19" s="7">
         <v>3.05</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="D19">
+        <v>3.09</v>
+      </c>
+      <c r="E19">
+        <v>3.05</v>
+      </c>
+      <c r="F19" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="E19" s="7">
+      <c r="G19" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>19</v>
       </c>
@@ -1085,11 +1202,17 @@
       <c r="C20" s="7">
         <v>1.9</v>
       </c>
-      <c r="D20" s="11">
+      <c r="D20">
+        <v>1.84</v>
+      </c>
+      <c r="E20">
+        <v>1.95</v>
+      </c>
+      <c r="F20" s="11">
         <v>1.49</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>20</v>
       </c>
@@ -1099,11 +1222,17 @@
       <c r="C21" s="7">
         <v>2.33</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="D21">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="E21">
+        <v>2.69</v>
+      </c>
+      <c r="F21" s="10" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>21</v>
       </c>
@@ -1113,11 +1242,17 @@
       <c r="C22" s="7">
         <v>2.34</v>
       </c>
-      <c r="D22" s="10" t="s">
+      <c r="D22">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E22">
+        <v>2.88</v>
+      </c>
+      <c r="F22" s="10" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>22</v>
       </c>
@@ -1127,11 +1262,17 @@
       <c r="C23" s="7">
         <v>2.2999999999999998</v>
       </c>
-      <c r="D23" s="10" t="s">
+      <c r="D23">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="E23">
+        <v>2.86</v>
+      </c>
+      <c r="F23" s="10" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>23</v>
       </c>
@@ -1141,11 +1282,17 @@
       <c r="C24" s="7">
         <v>2.2999999999999998</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D24">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="E24">
+        <v>2.87</v>
+      </c>
+      <c r="F24" s="7">
         <v>1.54</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>24</v>
       </c>
@@ -1155,11 +1302,17 @@
       <c r="C25" s="7">
         <v>2.36</v>
       </c>
-      <c r="D25" s="7">
+      <c r="D25">
+        <v>2.27</v>
+      </c>
+      <c r="E25">
+        <v>2.79</v>
+      </c>
+      <c r="F25" s="7">
         <v>1.36</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>25</v>
       </c>
@@ -1169,8 +1322,14 @@
       <c r="C26" s="7">
         <v>7.01</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D26">
+        <v>6.63</v>
+      </c>
+      <c r="E26">
+        <v>5.62</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>26</v>
       </c>
@@ -1180,8 +1339,14 @@
       <c r="C27" s="7">
         <v>3.62</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D27">
+        <v>3.49</v>
+      </c>
+      <c r="E27">
+        <v>3.39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>27</v>
       </c>
@@ -1191,8 +1356,14 @@
       <c r="C28" s="7">
         <v>3.75</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D28">
+        <v>3.75</v>
+      </c>
+      <c r="E28">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>28</v>
       </c>
@@ -1202,8 +1373,14 @@
       <c r="C29" s="7">
         <v>2.7</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D29">
+        <v>2.77</v>
+      </c>
+      <c r="E29">
+        <v>2.35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>29</v>
       </c>
@@ -1213,14 +1390,20 @@
       <c r="C30" s="7">
         <v>3.61</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="D30">
+        <v>3.66</v>
+      </c>
+      <c r="E30">
+        <v>3.58</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="E30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>30</v>
       </c>
@@ -1230,8 +1413,14 @@
       <c r="C31" s="7">
         <v>8.51</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D31">
+        <v>8.51</v>
+      </c>
+      <c r="E31">
+        <v>8.52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>31</v>
       </c>
@@ -1241,8 +1430,14 @@
       <c r="C32" s="7">
         <v>2.54</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D32">
+        <v>2.57</v>
+      </c>
+      <c r="E32">
+        <v>2.54</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>32</v>
       </c>
@@ -1252,8 +1447,14 @@
       <c r="C33" s="7">
         <v>2.57</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D33">
+        <v>2.61</v>
+      </c>
+      <c r="E33">
+        <v>2.5499999999999998</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>33</v>
       </c>
@@ -1263,8 +1464,14 @@
       <c r="C34" s="7">
         <v>3.04</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D34">
+        <v>3</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>34</v>
       </c>
@@ -1273,6 +1480,12 @@
       </c>
       <c r="C35" s="7">
         <v>3.67</v>
+      </c>
+      <c r="D35">
+        <v>3.77</v>
+      </c>
+      <c r="E35">
+        <v>3.19</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_comparison.xlsx
+++ b/predicted_comparison.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Python\python_work\works\working_pythons\BandGapPredictor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{720CFE51-59BE-4151-B361-A16A82981406}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{823FB8DA-0127-4DC5-952D-71CDDF783BBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -743,7 +743,7 @@
   <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -751,6 +751,7 @@
     <col min="1" max="1" width="24.5703125" style="6" customWidth="1"/>
     <col min="2" max="2" width="14.85546875" style="7" customWidth="1"/>
     <col min="3" max="3" width="15.7109375" style="7" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" customWidth="1"/>
     <col min="6" max="6" width="18.140625" style="7" customWidth="1"/>
     <col min="7" max="7" width="23.140625" style="7" customWidth="1"/>
   </cols>
@@ -789,10 +790,10 @@
         <v>3.13</v>
       </c>
       <c r="D2">
-        <v>3.09</v>
+        <v>3.2</v>
       </c>
       <c r="E2">
-        <v>3.09</v>
+        <v>3.18</v>
       </c>
       <c r="F2" s="8">
         <v>3.42</v>
@@ -812,10 +813,10 @@
         <v>3.35</v>
       </c>
       <c r="D3">
-        <v>3.21</v>
+        <v>3.52</v>
       </c>
       <c r="E3">
-        <v>3.18</v>
+        <v>3.45</v>
       </c>
       <c r="F3" s="8">
         <v>3.27</v>
@@ -835,10 +836,10 @@
         <v>3.22</v>
       </c>
       <c r="D4">
-        <v>3.16</v>
+        <v>3.43</v>
       </c>
       <c r="E4">
-        <v>3.25</v>
+        <v>3.42</v>
       </c>
       <c r="F4" s="8">
         <v>3.26</v>
@@ -858,10 +859,10 @@
         <v>3.31</v>
       </c>
       <c r="D5">
-        <v>3.18</v>
+        <v>3.45</v>
       </c>
       <c r="E5">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="F5" s="9" t="s">
         <v>57</v>
@@ -881,10 +882,10 @@
         <v>3.2</v>
       </c>
       <c r="D6">
-        <v>3.12</v>
+        <v>3.4</v>
       </c>
       <c r="E6">
-        <v>3.19</v>
+        <v>3.4</v>
       </c>
       <c r="F6" s="8" t="s">
         <v>58</v>
@@ -904,10 +905,10 @@
         <v>3.32</v>
       </c>
       <c r="D7">
-        <v>3.24</v>
+        <v>3.45</v>
       </c>
       <c r="E7">
-        <v>3.21</v>
+        <v>3.4</v>
       </c>
       <c r="F7" s="8">
         <v>3.2</v>
@@ -927,10 +928,10 @@
         <v>3.2</v>
       </c>
       <c r="D8">
-        <v>3.19</v>
+        <v>3.38</v>
       </c>
       <c r="E8">
-        <v>3.2</v>
+        <v>3.38</v>
       </c>
       <c r="F8" s="8">
         <v>3.4</v>
@@ -950,10 +951,10 @@
         <v>3.07</v>
       </c>
       <c r="D9">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="E9">
-        <v>3.01</v>
+        <v>2.94</v>
       </c>
       <c r="F9" s="8" t="s">
         <v>37</v>
@@ -973,10 +974,10 @@
         <v>3.29</v>
       </c>
       <c r="D10">
-        <v>3.12</v>
+        <v>3.3</v>
       </c>
       <c r="E10">
-        <v>3.06</v>
+        <v>3.31</v>
       </c>
       <c r="F10" s="8" t="s">
         <v>38</v>
@@ -996,10 +997,10 @@
         <v>3.19</v>
       </c>
       <c r="D11">
-        <v>3.12</v>
+        <v>3.28</v>
       </c>
       <c r="E11">
-        <v>3.12</v>
+        <v>3.29</v>
       </c>
       <c r="F11" s="8" t="s">
         <v>39</v>
@@ -1019,10 +1020,10 @@
         <v>3.19</v>
       </c>
       <c r="D12">
-        <v>3.15</v>
+        <v>3.29</v>
       </c>
       <c r="E12">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="F12" s="8" t="s">
         <v>40</v>
@@ -1042,10 +1043,10 @@
         <v>3.08</v>
       </c>
       <c r="D13">
-        <v>3.08</v>
+        <v>3.21</v>
       </c>
       <c r="E13">
-        <v>3.16</v>
+        <v>3.24</v>
       </c>
       <c r="F13" s="8" t="s">
         <v>41</v>
@@ -1065,10 +1066,10 @@
         <v>3.08</v>
       </c>
       <c r="D14">
-        <v>3.04</v>
+        <v>3.18</v>
       </c>
       <c r="E14">
-        <v>3.12</v>
+        <v>3.21</v>
       </c>
       <c r="F14" s="8" t="s">
         <v>42</v>
@@ -1088,10 +1089,10 @@
         <v>3.21</v>
       </c>
       <c r="D15">
-        <v>3.1</v>
+        <v>3.12</v>
       </c>
       <c r="E15">
-        <v>3.09</v>
+        <v>3.16</v>
       </c>
       <c r="F15" s="8" t="s">
         <v>43</v>
@@ -1111,10 +1112,10 @@
         <v>3.23</v>
       </c>
       <c r="D16">
-        <v>3.12</v>
+        <v>3.16</v>
       </c>
       <c r="E16">
-        <v>3.02</v>
+        <v>3.18</v>
       </c>
       <c r="F16" s="8" t="s">
         <v>44</v>
@@ -1134,7 +1135,7 @@
         <v>3.11</v>
       </c>
       <c r="D17">
-        <v>3.07</v>
+        <v>3.05</v>
       </c>
       <c r="E17">
         <v>3.05</v>
@@ -1157,10 +1158,10 @@
         <v>3.05</v>
       </c>
       <c r="D18">
-        <v>3.02</v>
+        <v>3.15</v>
       </c>
       <c r="E18">
-        <v>3.06</v>
+        <v>3.13</v>
       </c>
       <c r="F18" s="8" t="s">
         <v>46</v>
@@ -1180,10 +1181,10 @@
         <v>3.05</v>
       </c>
       <c r="D19">
-        <v>3.09</v>
+        <v>3.02</v>
       </c>
       <c r="E19">
-        <v>3.05</v>
+        <v>3.03</v>
       </c>
       <c r="F19" s="10" t="s">
         <v>59</v>
@@ -1203,10 +1204,10 @@
         <v>1.9</v>
       </c>
       <c r="D20">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="E20">
-        <v>1.95</v>
+        <v>1.89</v>
       </c>
       <c r="F20" s="11">
         <v>1.49</v>
@@ -1223,10 +1224,10 @@
         <v>2.33</v>
       </c>
       <c r="D21">
-        <v>2.2799999999999998</v>
+        <v>2.39</v>
       </c>
       <c r="E21">
-        <v>2.69</v>
+        <v>2.33</v>
       </c>
       <c r="F21" s="10" t="s">
         <v>60</v>
@@ -1243,10 +1244,10 @@
         <v>2.34</v>
       </c>
       <c r="D22">
-        <v>2.2000000000000002</v>
+        <v>2.42</v>
       </c>
       <c r="E22">
-        <v>2.88</v>
+        <v>2.35</v>
       </c>
       <c r="F22" s="10" t="s">
         <v>61</v>
@@ -1263,10 +1264,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="D23">
-        <v>2.2400000000000002</v>
+        <v>2.39</v>
       </c>
       <c r="E23">
-        <v>2.86</v>
+        <v>2.33</v>
       </c>
       <c r="F23" s="10" t="s">
         <v>62</v>
@@ -1283,10 +1284,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="D24">
-        <v>2.2200000000000002</v>
+        <v>2.39</v>
       </c>
       <c r="E24">
-        <v>2.87</v>
+        <v>2.33</v>
       </c>
       <c r="F24" s="7">
         <v>1.54</v>
@@ -1303,10 +1304,10 @@
         <v>2.36</v>
       </c>
       <c r="D25">
-        <v>2.27</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="E25">
-        <v>2.79</v>
+        <v>2.38</v>
       </c>
       <c r="F25" s="7">
         <v>1.36</v>
@@ -1323,10 +1324,10 @@
         <v>7.01</v>
       </c>
       <c r="D26">
-        <v>6.63</v>
+        <v>6.23</v>
       </c>
       <c r="E26">
-        <v>5.62</v>
+        <v>6.71</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -1340,10 +1341,10 @@
         <v>3.62</v>
       </c>
       <c r="D27">
-        <v>3.49</v>
+        <v>3.58</v>
       </c>
       <c r="E27">
-        <v>3.39</v>
+        <v>3.54</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -1357,10 +1358,10 @@
         <v>3.75</v>
       </c>
       <c r="D28">
-        <v>3.75</v>
+        <v>3.69</v>
       </c>
       <c r="E28">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -1374,10 +1375,10 @@
         <v>2.7</v>
       </c>
       <c r="D29">
-        <v>2.77</v>
+        <v>2.36</v>
       </c>
       <c r="E29">
-        <v>2.35</v>
+        <v>2.31</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -1391,10 +1392,10 @@
         <v>3.61</v>
       </c>
       <c r="D30">
-        <v>3.66</v>
+        <v>3.61</v>
       </c>
       <c r="E30">
-        <v>3.58</v>
+        <v>3.57</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>63</v>
@@ -1414,10 +1415,10 @@
         <v>8.51</v>
       </c>
       <c r="D31">
-        <v>8.51</v>
+        <v>8.5399999999999991</v>
       </c>
       <c r="E31">
-        <v>8.52</v>
+        <v>8.5399999999999991</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -1431,10 +1432,10 @@
         <v>2.54</v>
       </c>
       <c r="D32">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="E32">
-        <v>2.54</v>
+        <v>2.74</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -1448,10 +1449,10 @@
         <v>2.57</v>
       </c>
       <c r="D33">
-        <v>2.61</v>
+        <v>2.67</v>
       </c>
       <c r="E33">
-        <v>2.5499999999999998</v>
+        <v>2.76</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -1465,10 +1466,10 @@
         <v>3.04</v>
       </c>
       <c r="D34">
-        <v>3</v>
+        <v>2.92</v>
       </c>
       <c r="E34">
-        <v>3</v>
+        <v>2.93</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -1482,10 +1483,10 @@
         <v>3.67</v>
       </c>
       <c r="D35">
-        <v>3.77</v>
+        <v>3.84</v>
       </c>
       <c r="E35">
-        <v>3.19</v>
+        <v>3.85</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_comparison.xlsx
+++ b/predicted_comparison.xlsx
@@ -8,14 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Python\python_work\works\working_pythons\BandGapPredictor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{823FB8DA-0127-4DC5-952D-71CDDF783BBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80A06C56-250B-4D35-B1E9-E67AA443B6DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -743,7 +753,7 @@
   <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -751,7 +761,6 @@
     <col min="1" max="1" width="24.5703125" style="6" customWidth="1"/>
     <col min="2" max="2" width="14.85546875" style="7" customWidth="1"/>
     <col min="3" max="3" width="15.7109375" style="7" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" customWidth="1"/>
     <col min="6" max="6" width="18.140625" style="7" customWidth="1"/>
     <col min="7" max="7" width="23.140625" style="7" customWidth="1"/>
   </cols>
@@ -790,10 +799,10 @@
         <v>3.13</v>
       </c>
       <c r="D2">
-        <v>3.2</v>
+        <v>3.13</v>
       </c>
       <c r="E2">
-        <v>3.18</v>
+        <v>3.06</v>
       </c>
       <c r="F2" s="8">
         <v>3.42</v>
@@ -813,10 +822,10 @@
         <v>3.35</v>
       </c>
       <c r="D3">
-        <v>3.52</v>
+        <v>3.35</v>
       </c>
       <c r="E3">
-        <v>3.45</v>
+        <v>3.17</v>
       </c>
       <c r="F3" s="8">
         <v>3.27</v>
@@ -836,10 +845,10 @@
         <v>3.22</v>
       </c>
       <c r="D4">
-        <v>3.43</v>
+        <v>3.22</v>
       </c>
       <c r="E4">
-        <v>3.42</v>
+        <v>3.16</v>
       </c>
       <c r="F4" s="8">
         <v>3.26</v>
@@ -859,10 +868,10 @@
         <v>3.31</v>
       </c>
       <c r="D5">
-        <v>3.45</v>
+        <v>3.31</v>
       </c>
       <c r="E5">
-        <v>3.4</v>
+        <v>3.19</v>
       </c>
       <c r="F5" s="9" t="s">
         <v>57</v>
@@ -882,10 +891,10 @@
         <v>3.2</v>
       </c>
       <c r="D6">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="E6">
-        <v>3.4</v>
+        <v>3.21</v>
       </c>
       <c r="F6" s="8" t="s">
         <v>58</v>
@@ -905,10 +914,10 @@
         <v>3.32</v>
       </c>
       <c r="D7">
-        <v>3.45</v>
+        <v>3.32</v>
       </c>
       <c r="E7">
-        <v>3.4</v>
+        <v>3.09</v>
       </c>
       <c r="F7" s="8">
         <v>3.2</v>
@@ -928,10 +937,10 @@
         <v>3.2</v>
       </c>
       <c r="D8">
-        <v>3.38</v>
+        <v>3.2</v>
       </c>
       <c r="E8">
-        <v>3.38</v>
+        <v>3.28</v>
       </c>
       <c r="F8" s="8">
         <v>3.4</v>
@@ -951,10 +960,10 @@
         <v>3.07</v>
       </c>
       <c r="D9">
-        <v>2.95</v>
+        <v>3.07</v>
       </c>
       <c r="E9">
-        <v>2.94</v>
+        <v>2.99</v>
       </c>
       <c r="F9" s="8" t="s">
         <v>37</v>
@@ -974,10 +983,10 @@
         <v>3.29</v>
       </c>
       <c r="D10">
-        <v>3.3</v>
+        <v>3.29</v>
       </c>
       <c r="E10">
-        <v>3.31</v>
+        <v>2.96</v>
       </c>
       <c r="F10" s="8" t="s">
         <v>38</v>
@@ -997,10 +1006,10 @@
         <v>3.19</v>
       </c>
       <c r="D11">
-        <v>3.28</v>
+        <v>3.19</v>
       </c>
       <c r="E11">
-        <v>3.29</v>
+        <v>2.89</v>
       </c>
       <c r="F11" s="8" t="s">
         <v>39</v>
@@ -1020,10 +1029,10 @@
         <v>3.19</v>
       </c>
       <c r="D12">
-        <v>3.29</v>
+        <v>3.19</v>
       </c>
       <c r="E12">
-        <v>3.3</v>
+        <v>2.93</v>
       </c>
       <c r="F12" s="8" t="s">
         <v>40</v>
@@ -1043,10 +1052,10 @@
         <v>3.08</v>
       </c>
       <c r="D13">
-        <v>3.21</v>
+        <v>3.08</v>
       </c>
       <c r="E13">
-        <v>3.24</v>
+        <v>3.06</v>
       </c>
       <c r="F13" s="8" t="s">
         <v>41</v>
@@ -1066,10 +1075,10 @@
         <v>3.08</v>
       </c>
       <c r="D14">
-        <v>3.18</v>
+        <v>3.08</v>
       </c>
       <c r="E14">
-        <v>3.21</v>
+        <v>2.97</v>
       </c>
       <c r="F14" s="8" t="s">
         <v>42</v>
@@ -1089,10 +1098,10 @@
         <v>3.21</v>
       </c>
       <c r="D15">
-        <v>3.12</v>
+        <v>3.21</v>
       </c>
       <c r="E15">
-        <v>3.16</v>
+        <v>2.96</v>
       </c>
       <c r="F15" s="8" t="s">
         <v>43</v>
@@ -1112,10 +1121,10 @@
         <v>3.23</v>
       </c>
       <c r="D16">
-        <v>3.16</v>
+        <v>3.23</v>
       </c>
       <c r="E16">
-        <v>3.18</v>
+        <v>2.99</v>
       </c>
       <c r="F16" s="8" t="s">
         <v>44</v>
@@ -1135,10 +1144,10 @@
         <v>3.11</v>
       </c>
       <c r="D17">
-        <v>3.05</v>
+        <v>3.11</v>
       </c>
       <c r="E17">
-        <v>3.05</v>
+        <v>2.92</v>
       </c>
       <c r="F17" s="8" t="s">
         <v>45</v>
@@ -1158,10 +1167,10 @@
         <v>3.05</v>
       </c>
       <c r="D18">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="E18">
-        <v>3.13</v>
+        <v>3.02</v>
       </c>
       <c r="F18" s="8" t="s">
         <v>46</v>
@@ -1181,10 +1190,10 @@
         <v>3.05</v>
       </c>
       <c r="D19">
-        <v>3.02</v>
+        <v>3.05</v>
       </c>
       <c r="E19">
-        <v>3.03</v>
+        <v>3.08</v>
       </c>
       <c r="F19" s="10" t="s">
         <v>59</v>
@@ -1204,10 +1213,10 @@
         <v>1.9</v>
       </c>
       <c r="D20">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="E20">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="F20" s="11">
         <v>1.49</v>
@@ -1224,10 +1233,10 @@
         <v>2.33</v>
       </c>
       <c r="D21">
-        <v>2.39</v>
+        <v>2.33</v>
       </c>
       <c r="E21">
-        <v>2.33</v>
+        <v>2.66</v>
       </c>
       <c r="F21" s="10" t="s">
         <v>60</v>
@@ -1244,10 +1253,10 @@
         <v>2.34</v>
       </c>
       <c r="D22">
-        <v>2.42</v>
+        <v>2.34</v>
       </c>
       <c r="E22">
-        <v>2.35</v>
+        <v>2.7</v>
       </c>
       <c r="F22" s="10" t="s">
         <v>61</v>
@@ -1264,10 +1273,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="D23">
-        <v>2.39</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="E23">
-        <v>2.33</v>
+        <v>2.72</v>
       </c>
       <c r="F23" s="10" t="s">
         <v>62</v>
@@ -1284,10 +1293,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="D24">
-        <v>2.39</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="E24">
-        <v>2.33</v>
+        <v>2.72</v>
       </c>
       <c r="F24" s="7">
         <v>1.54</v>
@@ -1304,10 +1313,10 @@
         <v>2.36</v>
       </c>
       <c r="D25">
-        <v>2.4500000000000002</v>
+        <v>2.36</v>
       </c>
       <c r="E25">
-        <v>2.38</v>
+        <v>2.72</v>
       </c>
       <c r="F25" s="7">
         <v>1.36</v>
@@ -1324,10 +1333,10 @@
         <v>7.01</v>
       </c>
       <c r="D26">
-        <v>6.23</v>
+        <v>7.01</v>
       </c>
       <c r="E26">
-        <v>6.71</v>
+        <v>6.41</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -1341,10 +1350,10 @@
         <v>3.62</v>
       </c>
       <c r="D27">
-        <v>3.58</v>
+        <v>3.62</v>
       </c>
       <c r="E27">
-        <v>3.54</v>
+        <v>3.77</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -1358,10 +1367,10 @@
         <v>3.75</v>
       </c>
       <c r="D28">
-        <v>3.69</v>
+        <v>3.75</v>
       </c>
       <c r="E28">
-        <v>3.65</v>
+        <v>2.99</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -1375,10 +1384,10 @@
         <v>2.7</v>
       </c>
       <c r="D29">
-        <v>2.36</v>
+        <v>2.7</v>
       </c>
       <c r="E29">
-        <v>2.31</v>
+        <v>2.76</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -1395,7 +1404,7 @@
         <v>3.61</v>
       </c>
       <c r="E30">
-        <v>3.57</v>
+        <v>3.76</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>63</v>
@@ -1415,10 +1424,10 @@
         <v>8.51</v>
       </c>
       <c r="D31">
-        <v>8.5399999999999991</v>
+        <v>8.51</v>
       </c>
       <c r="E31">
-        <v>8.5399999999999991</v>
+        <v>8.18</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -1432,10 +1441,10 @@
         <v>2.54</v>
       </c>
       <c r="D32">
-        <v>2.63</v>
+        <v>2.54</v>
       </c>
       <c r="E32">
-        <v>2.74</v>
+        <v>2.71</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -1449,10 +1458,10 @@
         <v>2.57</v>
       </c>
       <c r="D33">
-        <v>2.67</v>
+        <v>0</v>
       </c>
       <c r="E33">
-        <v>2.76</v>
+        <v>2.65</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -1466,10 +1475,10 @@
         <v>3.04</v>
       </c>
       <c r="D34">
-        <v>2.92</v>
+        <v>3.04</v>
       </c>
       <c r="E34">
-        <v>2.93</v>
+        <v>3.11</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -1483,10 +1492,10 @@
         <v>3.67</v>
       </c>
       <c r="D35">
-        <v>3.84</v>
+        <v>3.67</v>
       </c>
       <c r="E35">
-        <v>3.85</v>
+        <v>3.11</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_comparison.xlsx
+++ b/predicted_comparison.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Python\python_work\works\working_pythons\BandGapPredictor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80A06C56-250B-4D35-B1E9-E67AA443B6DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9653BD3B-82D7-4C06-94A9-312578597A44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="67">
   <si>
     <t>Composition</t>
   </si>
@@ -279,9 +279,6 @@
   </si>
   <si>
     <t>Predicted Eg_RF</t>
-  </si>
-  <si>
-    <t>Predicted Eg</t>
   </si>
 </sst>
 </file>
@@ -753,7 +750,7 @@
   <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -761,6 +758,7 @@
     <col min="1" max="1" width="24.5703125" style="6" customWidth="1"/>
     <col min="2" max="2" width="14.85546875" style="7" customWidth="1"/>
     <col min="3" max="3" width="15.7109375" style="7" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" customWidth="1"/>
     <col min="6" max="6" width="18.140625" style="7" customWidth="1"/>
     <col min="7" max="7" width="23.140625" style="7" customWidth="1"/>
   </cols>
@@ -775,12 +773,8 @@
       <c r="C1" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>67</v>
-      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
       <c r="F1" s="4" t="s">
         <v>35</v>
       </c>
@@ -798,12 +792,6 @@
       <c r="C2" s="7">
         <v>3.13</v>
       </c>
-      <c r="D2">
-        <v>3.13</v>
-      </c>
-      <c r="E2">
-        <v>3.06</v>
-      </c>
       <c r="F2" s="8">
         <v>3.42</v>
       </c>
@@ -821,12 +809,6 @@
       <c r="C3" s="7">
         <v>3.35</v>
       </c>
-      <c r="D3">
-        <v>3.35</v>
-      </c>
-      <c r="E3">
-        <v>3.17</v>
-      </c>
       <c r="F3" s="8">
         <v>3.27</v>
       </c>
@@ -844,12 +826,6 @@
       <c r="C4" s="7">
         <v>3.22</v>
       </c>
-      <c r="D4">
-        <v>3.22</v>
-      </c>
-      <c r="E4">
-        <v>3.16</v>
-      </c>
       <c r="F4" s="8">
         <v>3.26</v>
       </c>
@@ -867,12 +843,6 @@
       <c r="C5" s="7">
         <v>3.31</v>
       </c>
-      <c r="D5">
-        <v>3.31</v>
-      </c>
-      <c r="E5">
-        <v>3.19</v>
-      </c>
       <c r="F5" s="9" t="s">
         <v>57</v>
       </c>
@@ -890,12 +860,6 @@
       <c r="C6" s="7">
         <v>3.2</v>
       </c>
-      <c r="D6">
-        <v>3.2</v>
-      </c>
-      <c r="E6">
-        <v>3.21</v>
-      </c>
       <c r="F6" s="8" t="s">
         <v>58</v>
       </c>
@@ -913,12 +877,6 @@
       <c r="C7" s="7">
         <v>3.32</v>
       </c>
-      <c r="D7">
-        <v>3.32</v>
-      </c>
-      <c r="E7">
-        <v>3.09</v>
-      </c>
       <c r="F7" s="8">
         <v>3.2</v>
       </c>
@@ -936,12 +894,6 @@
       <c r="C8" s="7">
         <v>3.2</v>
       </c>
-      <c r="D8">
-        <v>3.2</v>
-      </c>
-      <c r="E8">
-        <v>3.28</v>
-      </c>
       <c r="F8" s="8">
         <v>3.4</v>
       </c>
@@ -959,12 +911,6 @@
       <c r="C9" s="7">
         <v>3.07</v>
       </c>
-      <c r="D9">
-        <v>3.07</v>
-      </c>
-      <c r="E9">
-        <v>2.99</v>
-      </c>
       <c r="F9" s="8" t="s">
         <v>37</v>
       </c>
@@ -982,12 +928,6 @@
       <c r="C10" s="7">
         <v>3.29</v>
       </c>
-      <c r="D10">
-        <v>3.29</v>
-      </c>
-      <c r="E10">
-        <v>2.96</v>
-      </c>
       <c r="F10" s="8" t="s">
         <v>38</v>
       </c>
@@ -1005,12 +945,6 @@
       <c r="C11" s="7">
         <v>3.19</v>
       </c>
-      <c r="D11">
-        <v>3.19</v>
-      </c>
-      <c r="E11">
-        <v>2.89</v>
-      </c>
       <c r="F11" s="8" t="s">
         <v>39</v>
       </c>
@@ -1028,12 +962,6 @@
       <c r="C12" s="7">
         <v>3.19</v>
       </c>
-      <c r="D12">
-        <v>3.19</v>
-      </c>
-      <c r="E12">
-        <v>2.93</v>
-      </c>
       <c r="F12" s="8" t="s">
         <v>40</v>
       </c>
@@ -1051,12 +979,6 @@
       <c r="C13" s="7">
         <v>3.08</v>
       </c>
-      <c r="D13">
-        <v>3.08</v>
-      </c>
-      <c r="E13">
-        <v>3.06</v>
-      </c>
       <c r="F13" s="8" t="s">
         <v>41</v>
       </c>
@@ -1074,12 +996,6 @@
       <c r="C14" s="7">
         <v>3.08</v>
       </c>
-      <c r="D14">
-        <v>3.08</v>
-      </c>
-      <c r="E14">
-        <v>2.97</v>
-      </c>
       <c r="F14" s="8" t="s">
         <v>42</v>
       </c>
@@ -1097,12 +1013,6 @@
       <c r="C15" s="7">
         <v>3.21</v>
       </c>
-      <c r="D15">
-        <v>3.21</v>
-      </c>
-      <c r="E15">
-        <v>2.96</v>
-      </c>
       <c r="F15" s="8" t="s">
         <v>43</v>
       </c>
@@ -1120,12 +1030,6 @@
       <c r="C16" s="7">
         <v>3.23</v>
       </c>
-      <c r="D16">
-        <v>3.23</v>
-      </c>
-      <c r="E16">
-        <v>2.99</v>
-      </c>
       <c r="F16" s="8" t="s">
         <v>44</v>
       </c>
@@ -1143,12 +1047,6 @@
       <c r="C17" s="7">
         <v>3.11</v>
       </c>
-      <c r="D17">
-        <v>3.11</v>
-      </c>
-      <c r="E17">
-        <v>2.92</v>
-      </c>
       <c r="F17" s="8" t="s">
         <v>45</v>
       </c>
@@ -1166,12 +1064,6 @@
       <c r="C18" s="7">
         <v>3.05</v>
       </c>
-      <c r="D18">
-        <v>3.05</v>
-      </c>
-      <c r="E18">
-        <v>3.02</v>
-      </c>
       <c r="F18" s="8" t="s">
         <v>46</v>
       </c>
@@ -1189,12 +1081,6 @@
       <c r="C19" s="7">
         <v>3.05</v>
       </c>
-      <c r="D19">
-        <v>3.05</v>
-      </c>
-      <c r="E19">
-        <v>3.08</v>
-      </c>
       <c r="F19" s="10" t="s">
         <v>59</v>
       </c>
@@ -1212,12 +1098,6 @@
       <c r="C20" s="7">
         <v>1.9</v>
       </c>
-      <c r="D20">
-        <v>1.9</v>
-      </c>
-      <c r="E20">
-        <v>1.7</v>
-      </c>
       <c r="F20" s="11">
         <v>1.49</v>
       </c>
@@ -1232,12 +1112,6 @@
       <c r="C21" s="7">
         <v>2.33</v>
       </c>
-      <c r="D21">
-        <v>2.33</v>
-      </c>
-      <c r="E21">
-        <v>2.66</v>
-      </c>
       <c r="F21" s="10" t="s">
         <v>60</v>
       </c>
@@ -1252,12 +1126,6 @@
       <c r="C22" s="7">
         <v>2.34</v>
       </c>
-      <c r="D22">
-        <v>2.34</v>
-      </c>
-      <c r="E22">
-        <v>2.7</v>
-      </c>
       <c r="F22" s="10" t="s">
         <v>61</v>
       </c>
@@ -1272,12 +1140,6 @@
       <c r="C23" s="7">
         <v>2.2999999999999998</v>
       </c>
-      <c r="D23">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="E23">
-        <v>2.72</v>
-      </c>
       <c r="F23" s="10" t="s">
         <v>62</v>
       </c>
@@ -1292,12 +1154,6 @@
       <c r="C24" s="7">
         <v>2.2999999999999998</v>
       </c>
-      <c r="D24">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="E24">
-        <v>2.72</v>
-      </c>
       <c r="F24" s="7">
         <v>1.54</v>
       </c>
@@ -1312,12 +1168,6 @@
       <c r="C25" s="7">
         <v>2.36</v>
       </c>
-      <c r="D25">
-        <v>2.36</v>
-      </c>
-      <c r="E25">
-        <v>2.72</v>
-      </c>
       <c r="F25" s="7">
         <v>1.36</v>
       </c>
@@ -1332,12 +1182,6 @@
       <c r="C26" s="7">
         <v>7.01</v>
       </c>
-      <c r="D26">
-        <v>7.01</v>
-      </c>
-      <c r="E26">
-        <v>6.41</v>
-      </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
@@ -1349,12 +1193,6 @@
       <c r="C27" s="7">
         <v>3.62</v>
       </c>
-      <c r="D27">
-        <v>3.62</v>
-      </c>
-      <c r="E27">
-        <v>3.77</v>
-      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
@@ -1366,12 +1204,6 @@
       <c r="C28" s="7">
         <v>3.75</v>
       </c>
-      <c r="D28">
-        <v>3.75</v>
-      </c>
-      <c r="E28">
-        <v>2.99</v>
-      </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
@@ -1383,12 +1215,6 @@
       <c r="C29" s="7">
         <v>2.7</v>
       </c>
-      <c r="D29">
-        <v>2.7</v>
-      </c>
-      <c r="E29">
-        <v>2.76</v>
-      </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
@@ -1400,12 +1226,6 @@
       <c r="C30" s="7">
         <v>3.61</v>
       </c>
-      <c r="D30">
-        <v>3.61</v>
-      </c>
-      <c r="E30">
-        <v>3.76</v>
-      </c>
       <c r="F30" s="7" t="s">
         <v>63</v>
       </c>
@@ -1423,12 +1243,6 @@
       <c r="C31" s="7">
         <v>8.51</v>
       </c>
-      <c r="D31">
-        <v>8.51</v>
-      </c>
-      <c r="E31">
-        <v>8.18</v>
-      </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
@@ -1440,14 +1254,8 @@
       <c r="C32" s="7">
         <v>2.54</v>
       </c>
-      <c r="D32">
-        <v>2.54</v>
-      </c>
-      <c r="E32">
-        <v>2.71</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>32</v>
       </c>
@@ -1457,14 +1265,8 @@
       <c r="C33" s="7">
         <v>2.57</v>
       </c>
-      <c r="D33">
-        <v>0</v>
-      </c>
-      <c r="E33">
-        <v>2.65</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>33</v>
       </c>
@@ -1474,14 +1276,8 @@
       <c r="C34" s="7">
         <v>3.04</v>
       </c>
-      <c r="D34">
-        <v>3.04</v>
-      </c>
-      <c r="E34">
-        <v>3.11</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>34</v>
       </c>
@@ -1490,12 +1286,6 @@
       </c>
       <c r="C35" s="7">
         <v>3.67</v>
-      </c>
-      <c r="D35">
-        <v>3.67</v>
-      </c>
-      <c r="E35">
-        <v>3.11</v>
       </c>
     </row>
   </sheetData>
